--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python automation training\hybrid_framework_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9165D1-C9CB-47BB-BFD5-744866859AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2CC1C5-8659-4049-B6A3-8F5AD6C1EBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Test Description</t>
   </si>
@@ -37,14 +37,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Data 1:
-Username: abc@xyz.com
-Password: Abc@123
-Data 2:
-Username: test@xyz.com
-Password: Test@123</t>
   </si>
   <si>
     <t>1. Navigate to the https://www.amazon.in/
@@ -69,26 +61,80 @@
     <t>To verify title, url, header of the page</t>
   </si>
   <si>
-    <t>To verify hindi language items</t>
-  </si>
-  <si>
     <t>2. Title should be 'Online Shopping site in India: Shop Online for Mobiles, Books, Watches, Shoes and More - Amazon.in'
 3. URL should be https://www.amazon.in/
 4. header should be Amazon.in</t>
   </si>
   <si>
     <t>8. 'There was a problem Your password is incorrect' Error should appeared on the top of the page</t>
-  </si>
-  <si>
-    <t>book name: revolution 2020
-first language:हिन्दी
-second language: English</t>
   </si>
   <si>
     <t>5. Verify value should be 'HI'
 6. Verify value shuld be 'EN'
 7. Verify selected dropdown value should Books
 8. Verify search box value should revolution 2020</t>
+  </si>
+  <si>
+    <t>To verify create user with invalid data</t>
+  </si>
+  <si>
+    <t>1. Navigate to the https://www.amazon.in/
+2. Mouse hover on Acoount &amp; Lists section
+3. Click on 'New customer? Start here.' link
+4. Add data 1 and verify error
+5. Add data 2, select india contry from drop down and verify error</t>
+  </si>
+  <si>
+    <t>3. 'Create Account' page should open
+4. 'Enter your mobile number' error should appeared on the page
+5.  'Enter your password' error should appeared on the page</t>
+  </si>
+  <si>
+    <t>use data driven activity - using list and tupple for @pytest.mark.parametrize
+Data:
+title: "Online Shopping site in India: Shop Online for Mobiles, Books, Watches, Shoes and More - Amazon.in"
+url:https://www.amazon.in/
+header:Amazon.in</t>
+  </si>
+  <si>
+    <t>use data driven activity - using list and tupple for @pytest.mark.parametrize
+Data 1:
+Username: abc@xyz.com
+Password: Abc@123
+Data 2:
+Username: test@xyz.com
+Password: Test@123</t>
+  </si>
+  <si>
+    <t>use csv file for @pytest.mark.parametrize
+Data 1:
+name: Abc Xyz
+mobile_number:
+password: Abc@123
+Data 1:
+name: Test Xyz
+mobile_number: 9999998877
+password</t>
+  </si>
+  <si>
+    <t>To verify search item and it should search the item</t>
+  </si>
+  <si>
+    <t>To verify add item to cart and removed from cart</t>
+  </si>
+  <si>
+    <t>use excel file for @pytest.mark.parametrize
+book name: revolution 2020
+first language:हिन्दी
+second language: English
+search_result: Revolution Twenty 20: Love. Corruption. Ambition</t>
+  </si>
+  <si>
+    <t>use excel file for @pytest.mark.parametrize
+item_name: Books
+book name: revolution 2020
+search_result: Revolution Twenty 20: Love. Corruption. Ambition
+quantity: 5</t>
   </si>
   <si>
     <t>1. Navigate to the https://www.amazon.in/
@@ -98,8 +144,29 @@
 5. Again select the second language from excel sheet as language using javascript
 6. click on All categories dropdown
 7. Select Books from drop down
-7. Search book in the search box
-8. click on the search box icon</t>
+8. Search book in the search box and click enter</t>
+  </si>
+  <si>
+    <t>3. drop down value should be Books
+5. Book name should be revolution 2020
+search_result: Revolution Twenty 20: Love. Corruption. Ambition
+8. Total price should be price * quantity
+11. below texts should appeared on the page
+- Your Amazon Cart is empty.
+- Revolution Twenty 20: Love. Corruption. Ambition was removed from Shopping Cart.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the https://www.amazon.in/
+2. click on All categories dropdown
+3. Select Books from drop down and verify dropdown value
+4. Search book in the search box and click enter
+5. Click on book name and verify book name
+6. Get the book price and select quantity
+7. Click on 'Add to cart' button
+8. Verify the total price of books
+9. Click on 'Go to cart' button
+10. Click on delete button
+11. Verify texts on the page</t>
   </si>
 </sst>
 </file>
@@ -514,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,43 +609,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="138" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
+    <row r="6" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
